--- a/data/trans_orig/P6607-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6607-Edad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>31638</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23342</v>
+        <v>22978</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>41022</v>
+        <v>41463</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3818624119142272</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2817381671462304</v>
+        <v>0.2773442531569036</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4951312955762353</v>
+        <v>0.5004512502713697</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>67</v>
@@ -764,19 +764,19 @@
         <v>68003</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>58589</v>
+        <v>59125</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>75091</v>
+        <v>74941</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7745108071390293</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6672959561896512</v>
+        <v>0.6733942824442164</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8552358009518948</v>
+        <v>0.8535314726454711</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>97</v>
@@ -785,19 +785,19 @@
         <v>99640</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>87393</v>
+        <v>86753</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>113173</v>
+        <v>113488</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5838811482033683</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5121111427425572</v>
+        <v>0.5083600422583137</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6631821913478025</v>
+        <v>0.6650252113290358</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>6622</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2868</v>
+        <v>2759</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12702</v>
+        <v>12941</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07992974474087634</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03461764261249095</v>
+        <v>0.03330345960628197</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1533134241549212</v>
+        <v>0.1561969876226124</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -835,19 +835,19 @@
         <v>12648</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7043</v>
+        <v>7021</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>19991</v>
+        <v>20848</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1440533702505408</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08022114016794198</v>
+        <v>0.0799644425340129</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2276883484763919</v>
+        <v>0.2374406471591896</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>19</v>
@@ -856,19 +856,19 @@
         <v>19270</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>11548</v>
+        <v>12070</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>27827</v>
+        <v>29208</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1129215357408725</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0676726307743908</v>
+        <v>0.0707300656074519</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1630626176244337</v>
+        <v>0.1711569174065454</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>22409</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14248</v>
+        <v>15169</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>31736</v>
+        <v>31739</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2704724435917327</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1719658963174141</v>
+        <v>0.1830863859682265</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3830457013789107</v>
+        <v>0.3830840933864326</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -906,19 +906,19 @@
         <v>3885</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1821</v>
+        <v>984</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>8965</v>
+        <v>8981</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04425094326288523</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02073693269691967</v>
+        <v>0.01120501428096891</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1021076130075423</v>
+        <v>0.1022893634946645</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>25</v>
@@ -927,19 +927,19 @@
         <v>26294</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>18565</v>
+        <v>17535</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>37354</v>
+        <v>37450</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1540808266294318</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1087884469331633</v>
+        <v>0.1027554339508999</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2188873104449086</v>
+        <v>0.2194506808541986</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>22182</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14812</v>
+        <v>14831</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31343</v>
+        <v>31506</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2677353997531637</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1787766158146013</v>
+        <v>0.1790025637902883</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.378307261824005</v>
+        <v>0.3802742296381533</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -977,19 +977,19 @@
         <v>3265</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9161</v>
+        <v>8479</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0371848793475447</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01139466880787064</v>
+        <v>0.01134325776211941</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1043355942184055</v>
+        <v>0.09657032253475618</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>23</v>
@@ -998,19 +998,19 @@
         <v>25447</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16754</v>
+        <v>16789</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>36135</v>
+        <v>37320</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1491164894263273</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09817925197999315</v>
+        <v>0.09838197786699832</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2117488909190116</v>
+        <v>0.2186911658002884</v>
       </c>
     </row>
     <row r="8">
@@ -1102,19 +1102,19 @@
         <v>152953</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>132986</v>
+        <v>131446</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>173185</v>
+        <v>171697</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3986562293803175</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3466128066710634</v>
+        <v>0.3426007289797193</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4513891377250288</v>
+        <v>0.4475088300753333</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>185</v>
@@ -1123,19 +1123,19 @@
         <v>195325</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>179522</v>
+        <v>178332</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>210223</v>
+        <v>211760</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.704656515618346</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6476456088754216</v>
+        <v>0.6433514288083166</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7584013912892976</v>
+        <v>0.763946741687324</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>332</v>
@@ -1144,19 +1144,19 @@
         <v>348278</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>320884</v>
+        <v>323251</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>374270</v>
+        <v>374109</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5270047174882223</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4855527333812998</v>
+        <v>0.489134101746239</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5663343347955403</v>
+        <v>0.5660904797807659</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>75618</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>61876</v>
+        <v>61092</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>92142</v>
+        <v>92161</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1970912146900489</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1612723927433478</v>
+        <v>0.159230892692808</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.240158251665466</v>
+        <v>0.2402088480113727</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>42</v>
@@ -1194,19 +1194,19 @@
         <v>47339</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>35031</v>
+        <v>35830</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>61136</v>
+        <v>61168</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1707806782563131</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1263790453498254</v>
+        <v>0.1292594310934073</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2205534951760777</v>
+        <v>0.220668829117968</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>118</v>
@@ -1215,19 +1215,19 @@
         <v>122957</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>104027</v>
+        <v>104836</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>143368</v>
+        <v>143353</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1860555466712578</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1574112827719683</v>
+        <v>0.1586345752131418</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2169402303566437</v>
+        <v>0.2169178519462044</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>76524</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>62213</v>
+        <v>62872</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>93931</v>
+        <v>93787</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1994528152046114</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1621512086518813</v>
+        <v>0.1638678370387323</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2448218023333924</v>
+        <v>0.2444470075047163</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>15</v>
@@ -1265,19 +1265,19 @@
         <v>16755</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>9718</v>
+        <v>9656</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>27128</v>
+        <v>25468</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06044718241313991</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03506052585678159</v>
+        <v>0.03483550117262846</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09786885606427795</v>
+        <v>0.09187762691664035</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>88</v>
@@ -1286,19 +1286,19 @@
         <v>93280</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>74899</v>
+        <v>75916</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>113782</v>
+        <v>112644</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.141148416125096</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1133356562480492</v>
+        <v>0.1148738638654216</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1721709239653626</v>
+        <v>0.1704489062475087</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>78576</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>63319</v>
+        <v>63789</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>96598</v>
+        <v>95692</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2047997407250222</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1650347477109855</v>
+        <v>0.1662590513551715</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.251772325663648</v>
+        <v>0.2494115361789508</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>16</v>
@@ -1336,19 +1336,19 @@
         <v>17772</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>10349</v>
+        <v>10100</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>28067</v>
+        <v>26832</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06411562371220102</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03733453772501833</v>
+        <v>0.0364351972809305</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.101253559591609</v>
+        <v>0.09679911508069039</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>89</v>
@@ -1357,19 +1357,19 @@
         <v>96348</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>78082</v>
+        <v>78519</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>117652</v>
+        <v>115031</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1457913197154239</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1181514372854345</v>
+        <v>0.1188122173500507</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1780282457580786</v>
+        <v>0.1740610191064167</v>
       </c>
     </row>
     <row r="13">
@@ -1461,19 +1461,19 @@
         <v>173053</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>154739</v>
+        <v>153727</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>195228</v>
+        <v>194819</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4078138972880054</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3646547639120349</v>
+        <v>0.3622711020776578</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4600718251191799</v>
+        <v>0.459106921343601</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>197</v>
@@ -1482,19 +1482,19 @@
         <v>208683</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>191840</v>
+        <v>193776</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>221923</v>
+        <v>222796</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7301256363373096</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6711963604386917</v>
+        <v>0.6779695654159825</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7764493585020901</v>
+        <v>0.7795021225111258</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>363</v>
@@ -1503,19 +1503,19 @@
         <v>381736</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>353405</v>
+        <v>354181</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>408147</v>
+        <v>409837</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5375344389540195</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4976407151530512</v>
+        <v>0.4987336338081212</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5747251494714852</v>
+        <v>0.5771047059010918</v>
       </c>
     </row>
     <row r="15">
@@ -1532,19 +1532,19 @@
         <v>99264</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>82601</v>
+        <v>82096</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>118248</v>
+        <v>116681</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.233924915109166</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1946561579803438</v>
+        <v>0.1934651110166902</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.278661428635206</v>
+        <v>0.2749682972359428</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>49</v>
@@ -1553,19 +1553,19 @@
         <v>49136</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>36983</v>
+        <v>37940</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>62203</v>
+        <v>62847</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1719148780881739</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1293947568575808</v>
+        <v>0.1327410508127697</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2176305451529018</v>
+        <v>0.2198835052016814</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>143</v>
@@ -1574,19 +1574,19 @@
         <v>148401</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>126994</v>
+        <v>125488</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>171066</v>
+        <v>173046</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2089677862909004</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1788248039416237</v>
+        <v>0.1767034953928509</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2408834494533303</v>
+        <v>0.2436719700717595</v>
       </c>
     </row>
     <row r="16">
@@ -1603,19 +1603,19 @@
         <v>77914</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>61417</v>
+        <v>64095</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>94322</v>
+        <v>95818</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1836106168241691</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1447331771779196</v>
+        <v>0.1510457542235515</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2222780261568046</v>
+        <v>0.2258036202113523</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -1624,19 +1624,19 @@
         <v>14771</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8770</v>
+        <v>8624</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23573</v>
+        <v>23085</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05168133921458724</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03068304663795423</v>
+        <v>0.03017232959631402</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08247481637092455</v>
+        <v>0.08076909969714909</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>93</v>
@@ -1645,19 +1645,19 @@
         <v>92685</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>77108</v>
+        <v>77081</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>111463</v>
+        <v>113436</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1305131485048319</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1085787687398747</v>
+        <v>0.1085395714916387</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1569549729035407</v>
+        <v>0.159732391324641</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>74112</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>59549</v>
+        <v>58815</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>92814</v>
+        <v>90905</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1746505707786595</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1403323481182174</v>
+        <v>0.1386016296035966</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.218723330767779</v>
+        <v>0.2142243854008614</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>12</v>
@@ -1695,19 +1695,19 @@
         <v>13227</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7141</v>
+        <v>7177</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>21929</v>
+        <v>21779</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04627814635992916</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0249840633688465</v>
+        <v>0.02511213428273246</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07672206804618129</v>
+        <v>0.07619941182792687</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>83</v>
@@ -1716,19 +1716,19 @@
         <v>87339</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>71206</v>
+        <v>68284</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>107868</v>
+        <v>106664</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1229846262502481</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1002668254227406</v>
+        <v>0.09615234467790558</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1518926615146966</v>
+        <v>0.1501962583671385</v>
       </c>
     </row>
     <row r="18">
@@ -1820,19 +1820,19 @@
         <v>156094</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>135737</v>
+        <v>137203</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>176941</v>
+        <v>176239</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4325838120498941</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3761671205085954</v>
+        <v>0.3802315117114441</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4903561668608618</v>
+        <v>0.4884128089869264</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>146</v>
@@ -1841,19 +1841,19 @@
         <v>170317</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>155109</v>
+        <v>156967</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>183091</v>
+        <v>183187</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7632396613578286</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6950889109213797</v>
+        <v>0.7034153529069311</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8204835374308325</v>
+        <v>0.8209135069913964</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>283</v>
@@ -1862,19 +1862,19 @@
         <v>326411</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>298569</v>
+        <v>302358</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>351156</v>
+        <v>352891</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5589315922182707</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5112566626332201</v>
+        <v>0.5177450317382957</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.601303611334265</v>
+        <v>0.6042738925173295</v>
       </c>
     </row>
     <row r="20">
@@ -1891,19 +1891,19 @@
         <v>82831</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>67878</v>
+        <v>67707</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>101905</v>
+        <v>100432</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2295492497057541</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1881096781118079</v>
+        <v>0.1876354312895108</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2824092932994284</v>
+        <v>0.2783275214856777</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>27</v>
@@ -1912,19 +1912,19 @@
         <v>29838</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>19891</v>
+        <v>19750</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>41543</v>
+        <v>41959</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1337145841608716</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08913695228301038</v>
+        <v>0.08850519260264358</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1861661160145953</v>
+        <v>0.1880307965343793</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>102</v>
@@ -1933,19 +1933,19 @@
         <v>112669</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>94361</v>
+        <v>93027</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>134197</v>
+        <v>135603</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1929296124602075</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.161579437351131</v>
+        <v>0.1592951984643116</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2297932461001505</v>
+        <v>0.2322000338059631</v>
       </c>
     </row>
     <row r="21">
@@ -1962,19 +1962,19 @@
         <v>55064</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>41771</v>
+        <v>43128</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>70194</v>
+        <v>72015</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1525991232455336</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1157602223605406</v>
+        <v>0.1195205131981439</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1945292314882432</v>
+        <v>0.1995760140927295</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>7</v>
@@ -1983,19 +1983,19 @@
         <v>10032</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>4176</v>
+        <v>4188</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>19798</v>
+        <v>20767</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.04495793053127554</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01871275653963421</v>
+        <v>0.01876878299888093</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08872036168323695</v>
+        <v>0.09306096137248608</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>56</v>
@@ -2004,19 +2004,19 @@
         <v>65096</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>49777</v>
+        <v>50043</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>83244</v>
+        <v>82534</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1114680627105746</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0852355989029724</v>
+        <v>0.08569159515797056</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1425440499558855</v>
+        <v>0.1413277988760602</v>
       </c>
     </row>
     <row r="22">
@@ -2033,19 +2033,19 @@
         <v>66852</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>52303</v>
+        <v>53001</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>83058</v>
+        <v>84193</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1852678149988182</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1449465392871008</v>
+        <v>0.146880611362365</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2301800588908158</v>
+        <v>0.2333239397957224</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -2054,19 +2054,19 @@
         <v>12962</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6664</v>
+        <v>6653</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>22468</v>
+        <v>22354</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0580878239500242</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0298652542244169</v>
+        <v>0.02981600124546291</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.100687371635648</v>
+        <v>0.1001731788769955</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>72</v>
@@ -2075,19 +2075,19 @@
         <v>79814</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>64989</v>
+        <v>64161</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>99013</v>
+        <v>99110</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1366707326109473</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1112838799724587</v>
+        <v>0.109865639278317</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1695458421684759</v>
+        <v>0.1697119489046572</v>
       </c>
     </row>
     <row r="23">
@@ -2179,19 +2179,19 @@
         <v>63498</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>51861</v>
+        <v>51397</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>76760</v>
+        <v>76742</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4035461572440524</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3295870199332726</v>
+        <v>0.3266381082531387</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4878268526774433</v>
+        <v>0.4877129509416733</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>43</v>
@@ -2200,19 +2200,19 @@
         <v>47237</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>39048</v>
+        <v>38416</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>55048</v>
+        <v>54909</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6778049268589481</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5603008910283379</v>
+        <v>0.5512320850676364</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7898803239251576</v>
+        <v>0.7878884662336065</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>103</v>
@@ -2221,19 +2221,19 @@
         <v>110735</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>95292</v>
+        <v>95493</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>125773</v>
+        <v>127540</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4877301218632618</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4197136260509245</v>
+        <v>0.4205985379227262</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5539681794872718</v>
+        <v>0.5617486665437198</v>
       </c>
     </row>
     <row r="25">
@@ -2250,19 +2250,19 @@
         <v>33076</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>23634</v>
+        <v>23503</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>44456</v>
+        <v>44182</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2102067230618979</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1501998153535322</v>
+        <v>0.1493649409531119</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2825280247022379</v>
+        <v>0.2807867759908675</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>10</v>
@@ -2271,19 +2271,19 @@
         <v>11558</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>6102</v>
+        <v>5895</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>19223</v>
+        <v>19371</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1658533621138414</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08756304932976165</v>
+        <v>0.08458718921032037</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2758306825826916</v>
+        <v>0.2779602239752481</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>41</v>
@@ -2292,19 +2292,19 @@
         <v>44635</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>31409</v>
+        <v>33546</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>56956</v>
+        <v>59426</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1965924208682538</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1383404880739981</v>
+        <v>0.1477547474397453</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2508631192296796</v>
+        <v>0.2617398096847922</v>
       </c>
     </row>
     <row r="26">
@@ -2321,19 +2321,19 @@
         <v>27936</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>18887</v>
+        <v>18916</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>38031</v>
+        <v>39118</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1775378728754049</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1200292891559916</v>
+        <v>0.120213551822286</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2416975204541121</v>
+        <v>0.2486044628081964</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -2342,19 +2342,19 @@
         <v>4293</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>9668</v>
+        <v>9749</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06160257371163047</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01577299166135972</v>
+        <v>0.01568566181111334</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1387268636607643</v>
+        <v>0.1398832751876403</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>30</v>
@@ -2363,19 +2363,19 @@
         <v>32229</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>22650</v>
+        <v>21770</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>45740</v>
+        <v>44262</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1419514333364792</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0997624313536057</v>
+        <v>0.09588374294115848</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2014602829454143</v>
+        <v>0.194952745107078</v>
       </c>
     </row>
     <row r="27">
@@ -2392,19 +2392,19 @@
         <v>32841</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>22828</v>
+        <v>22805</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>44257</v>
+        <v>44293</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2087092468186448</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1450791533495353</v>
+        <v>0.1449322606755517</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2812622508423314</v>
+        <v>0.2814930828719733</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>6</v>
@@ -2413,19 +2413,19 @@
         <v>6602</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2254</v>
+        <v>3031</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>13517</v>
+        <v>13545</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.09473913731558001</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.03234810141663966</v>
+        <v>0.04348881855614484</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1939550021201811</v>
+        <v>0.1943633595726274</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>36</v>
@@ -2434,19 +2434,19 @@
         <v>39443</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>27481</v>
+        <v>29060</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>52084</v>
+        <v>52388</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1737260239320052</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1210384883598581</v>
+        <v>0.1279963042778662</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2294016034308668</v>
+        <v>0.2307442553122896</v>
       </c>
     </row>
     <row r="28">
@@ -2538,19 +2538,19 @@
         <v>577236</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>542562</v>
+        <v>538821</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>619147</v>
+        <v>616030</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4096611050399486</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3850528493062589</v>
+        <v>0.3823982627056556</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4394048935319476</v>
+        <v>0.4371924598500705</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>638</v>
@@ -2559,19 +2559,19 @@
         <v>689565</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>662302</v>
+        <v>656306</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>717363</v>
+        <v>716810</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7307406556153411</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7018497808869598</v>
+        <v>0.6954959432260757</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7601985883012984</v>
+        <v>0.7596131501236321</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1178</v>
@@ -2580,19 +2580,19 @@
         <v>1266801</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1219838</v>
+        <v>1220507</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1318093</v>
+        <v>1321748</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5384434084851311</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5184821517581393</v>
+        <v>0.5187666395403787</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5602445856131241</v>
+        <v>0.5617982309377839</v>
       </c>
     </row>
     <row r="30">
@@ -2609,19 +2609,19 @@
         <v>297412</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>266181</v>
+        <v>263245</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>331849</v>
+        <v>330456</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2110715648849366</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1889069041620172</v>
+        <v>0.1868233499576826</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2355111535816037</v>
+        <v>0.2345227992528803</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>140</v>
@@ -2630,19 +2630,19 @@
         <v>150520</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>128856</v>
+        <v>128483</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>175460</v>
+        <v>177301</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1595082939541691</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1365505214429612</v>
+        <v>0.1361553046982066</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1859374531081479</v>
+        <v>0.1878883623196319</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>423</v>
@@ -2651,19 +2651,19 @@
         <v>447932</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>407171</v>
+        <v>406523</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>489587</v>
+        <v>487361</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1903899712059489</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1730646929568199</v>
+        <v>0.1727892773705041</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2080951220635164</v>
+        <v>0.2071486079873889</v>
       </c>
     </row>
     <row r="31">
@@ -2680,19 +2680,19 @@
         <v>259847</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>229727</v>
+        <v>231298</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>289969</v>
+        <v>290201</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1844118756893433</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1630355747679474</v>
+        <v>0.1641510422596099</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2057890686582554</v>
+        <v>0.2059539248297516</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>45</v>
@@ -2701,19 +2701,19 @@
         <v>49738</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>36333</v>
+        <v>36888</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>65337</v>
+        <v>65946</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.05270768436512696</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03850277335076743</v>
+        <v>0.03909037180350008</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.06923830616411006</v>
+        <v>0.06988337939118502</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>292</v>
@@ -2722,19 +2722,19 @@
         <v>309585</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>277761</v>
+        <v>275535</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>342709</v>
+        <v>343363</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1315864338269692</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1180599688995354</v>
+        <v>0.1171139357283587</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1456654457025126</v>
+        <v>0.1459436692018662</v>
       </c>
     </row>
     <row r="32">
@@ -2751,19 +2751,19 @@
         <v>274563</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>245152</v>
+        <v>244796</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>307896</v>
+        <v>308576</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1948554543857715</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1739828038555483</v>
+        <v>0.1737305243181477</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2185119134251078</v>
+        <v>0.2189943687047415</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>48</v>
@@ -2772,19 +2772,19 @@
         <v>53829</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>39635</v>
+        <v>41206</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>71238</v>
+        <v>71290</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.05704336606536289</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.04200181780630149</v>
+        <v>0.04366630899011958</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.07549213020176493</v>
+        <v>0.07554669064269236</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>303</v>
@@ -2793,19 +2793,19 @@
         <v>328392</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>296282</v>
+        <v>296157</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>364299</v>
+        <v>364593</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1395801864819508</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.125932286911103</v>
+        <v>0.125879199554112</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1548423255723586</v>
+        <v>0.1549671090631908</v>
       </c>
     </row>
     <row r="33">
@@ -3138,19 +3138,19 @@
         <v>23579</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15744</v>
+        <v>15846</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31583</v>
+        <v>32359</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2980529669929083</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1990164334309931</v>
+        <v>0.2003108717532551</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3992396752402381</v>
+        <v>0.4090386722622915</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>64</v>
@@ -3159,19 +3159,19 @@
         <v>62296</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>51948</v>
+        <v>52821</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>70938</v>
+        <v>70231</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.678196267559854</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5655406786383551</v>
+        <v>0.575044511546029</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7722860902247738</v>
+        <v>0.7645887488335759</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>86</v>
@@ -3180,19 +3180,19 @@
         <v>85874</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>73435</v>
+        <v>73328</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>99507</v>
+        <v>100099</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5022947452744342</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4295322261498804</v>
+        <v>0.4289105530539395</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5820328031918669</v>
+        <v>0.5854997922755589</v>
       </c>
     </row>
     <row r="5">
@@ -3209,19 +3209,19 @@
         <v>29592</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>21452</v>
+        <v>21376</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>39274</v>
+        <v>38834</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3740621330177194</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2711737218170239</v>
+        <v>0.2702144544897244</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4964538144145191</v>
+        <v>0.4908880453726346</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>15</v>
@@ -3230,19 +3230,19 @@
         <v>14886</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9135</v>
+        <v>9276</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>23127</v>
+        <v>23727</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1620572779070441</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09945388047911261</v>
+        <v>0.1009870187125556</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2517772472934572</v>
+        <v>0.2583051823237837</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>42</v>
@@ -3251,19 +3251,19 @@
         <v>44477</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>33678</v>
+        <v>33454</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>57578</v>
+        <v>56863</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2601570647249372</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1969879859211555</v>
+        <v>0.1956789394526388</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.336785155223865</v>
+        <v>0.3325998263317382</v>
       </c>
     </row>
     <row r="6">
@@ -3280,19 +3280,19 @@
         <v>7735</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3700</v>
+        <v>3723</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14497</v>
+        <v>14537</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0977769160749275</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04677315203313746</v>
+        <v>0.04706466580933456</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1832479025302712</v>
+        <v>0.1837552632699122</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -3301,19 +3301,19 @@
         <v>8468</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3556</v>
+        <v>3924</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>15518</v>
+        <v>15479</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09219204532156766</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03871446434901506</v>
+        <v>0.04271865657698592</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.168943029703319</v>
+        <v>0.16851102949822</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>16</v>
@@ -3322,19 +3322,19 @@
         <v>16203</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>9611</v>
+        <v>9783</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>25085</v>
+        <v>25036</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09477630043225403</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05621431600803301</v>
+        <v>0.05722130980426925</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1467283007118138</v>
+        <v>0.1464390350488932</v>
       </c>
     </row>
     <row r="7">
@@ -3351,19 +3351,19 @@
         <v>18204</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11144</v>
+        <v>10770</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26520</v>
+        <v>26369</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2301079839144448</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.140871860200241</v>
+        <v>0.1361427982016188</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3352350277023257</v>
+        <v>0.3333270639459648</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -3372,19 +3372,19 @@
         <v>6205</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2721</v>
+        <v>2495</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13067</v>
+        <v>13092</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06755440921153431</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02962788717184655</v>
+        <v>0.02716354449449281</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.142261201382323</v>
+        <v>0.1425243751387381</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>23</v>
@@ -3393,19 +3393,19 @@
         <v>24409</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16557</v>
+        <v>16054</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>35376</v>
+        <v>34614</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1427718895683746</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0968450876952711</v>
+        <v>0.09390096831100075</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2069234523453826</v>
+        <v>0.2024609421194014</v>
       </c>
     </row>
     <row r="8">
@@ -3497,19 +3497,19 @@
         <v>120584</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>102073</v>
+        <v>104421</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>136572</v>
+        <v>138451</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3513233050121009</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2973899641323465</v>
+        <v>0.3042311709361074</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3979045806992843</v>
+        <v>0.4033784560199999</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>193</v>
@@ -3518,19 +3518,19 @@
         <v>189054</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>172879</v>
+        <v>174434</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>202668</v>
+        <v>201988</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6906946123698621</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6316004705870155</v>
+        <v>0.6372813259302174</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7404317536406364</v>
+        <v>0.7379478109788867</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>312</v>
@@ -3539,19 +3539,19 @@
         <v>309639</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>285995</v>
+        <v>285533</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>336292</v>
+        <v>333935</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5018902180877752</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4635671581860496</v>
+        <v>0.4628181023174304</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5450928099173927</v>
+        <v>0.5412712197703311</v>
       </c>
     </row>
     <row r="10">
@@ -3568,19 +3568,19 @@
         <v>85846</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>69872</v>
+        <v>69675</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>102769</v>
+        <v>103147</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2501125324409876</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2035719248106192</v>
+        <v>0.2029986047829174</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2994182678774395</v>
+        <v>0.3005217635562487</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>51</v>
@@ -3589,19 +3589,19 @@
         <v>47700</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>36953</v>
+        <v>36652</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>61038</v>
+        <v>59880</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1742698144415935</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1350033194983821</v>
+        <v>0.1339069028663929</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2229963661268037</v>
+        <v>0.2187684255508013</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>132</v>
@@ -3610,19 +3610,19 @@
         <v>133546</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>113387</v>
+        <v>113426</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>153285</v>
+        <v>156735</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.216463830618357</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1837871934845224</v>
+        <v>0.1838507569930924</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2484587484974895</v>
+        <v>0.2540509401535447</v>
       </c>
     </row>
     <row r="11">
@@ -3639,19 +3639,19 @@
         <v>66063</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>51126</v>
+        <v>53092</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>81324</v>
+        <v>81211</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1924762589395878</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1489550844236333</v>
+        <v>0.1546855802564842</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.236937724385193</v>
+        <v>0.2366109159575501</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>21</v>
@@ -3660,19 +3660,19 @@
         <v>19764</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>12409</v>
+        <v>12987</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>30085</v>
+        <v>28830</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07220447393060081</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04533633526535204</v>
+        <v>0.04744553108079818</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1099147665440722</v>
+        <v>0.1053299216998098</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>83</v>
@@ -3681,19 +3681,19 @@
         <v>85827</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>68482</v>
+        <v>69037</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>104218</v>
+        <v>102832</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1391159688788429</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1110011156964597</v>
+        <v>0.1119015847390313</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1689251302197166</v>
+        <v>0.1666788057610737</v>
       </c>
     </row>
     <row r="12">
@@ -3710,19 +3710,19 @@
         <v>70735</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>56121</v>
+        <v>57037</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>87633</v>
+        <v>88005</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2060879036073238</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.163510117453828</v>
+        <v>0.1661784824170945</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2553195215800422</v>
+        <v>0.2564043116271173</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>18</v>
@@ -3731,19 +3731,19 @@
         <v>17198</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>10596</v>
+        <v>10554</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>26184</v>
+        <v>25806</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06283109925794354</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03871235783455362</v>
+        <v>0.03855695276796764</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09566172173790118</v>
+        <v>0.09427856556310735</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>84</v>
@@ -3752,19 +3752,19 @@
         <v>87933</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>69748</v>
+        <v>71460</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>104565</v>
+        <v>105402</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1425299824150249</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1130533178941425</v>
+        <v>0.1158295020499312</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1694881575065617</v>
+        <v>0.1708455341468964</v>
       </c>
     </row>
     <row r="13">
@@ -3856,19 +3856,19 @@
         <v>182405</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>161178</v>
+        <v>161380</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>203138</v>
+        <v>203275</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4005944568519955</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3539766982957002</v>
+        <v>0.3544213093146429</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4461278075157176</v>
+        <v>0.4464301212273633</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>223</v>
@@ -3877,19 +3877,19 @@
         <v>220046</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>202469</v>
+        <v>203285</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>236058</v>
+        <v>236659</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6951746507792801</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6396457670962028</v>
+        <v>0.642222325911361</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7457616858319028</v>
+        <v>0.7476594336167406</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>399</v>
@@ -3898,19 +3898,19 @@
         <v>402450</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>373690</v>
+        <v>374752</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>431933</v>
+        <v>430069</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5213979696652251</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4841374049134385</v>
+        <v>0.4855130859649665</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5595949283575639</v>
+        <v>0.5571805821640732</v>
       </c>
     </row>
     <row r="15">
@@ -3927,19 +3927,19 @@
         <v>103478</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>87252</v>
+        <v>85617</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>122788</v>
+        <v>122539</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.227257175341213</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1916208308258526</v>
+        <v>0.1880299829510839</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2696641769155055</v>
+        <v>0.2691178529870215</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>49</v>
@@ -3948,19 +3948,19 @@
         <v>49148</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>36892</v>
+        <v>37372</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>61946</v>
+        <v>62476</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1552693971764722</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1165507273100269</v>
+        <v>0.1180666891691218</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1957012134349475</v>
+        <v>0.1973753819643311</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>147</v>
@@ -3969,19 +3969,19 @@
         <v>152626</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>130515</v>
+        <v>131912</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>175752</v>
+        <v>177452</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1977359221775775</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1690906372763036</v>
+        <v>0.1708999167366012</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2276972658044216</v>
+        <v>0.2298992506029374</v>
       </c>
     </row>
     <row r="16">
@@ -3998,19 +3998,19 @@
         <v>79800</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>63745</v>
+        <v>63740</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>97313</v>
+        <v>97882</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1752565815020387</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1399956343672448</v>
+        <v>0.1399850348677589</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.213717226405074</v>
+        <v>0.2149678680589451</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>25</v>
@@ -4019,19 +4019,19 @@
         <v>24899</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>15667</v>
+        <v>17017</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>36035</v>
+        <v>35954</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07866236700261417</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04949460230661371</v>
+        <v>0.05376139872808874</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1138422837265324</v>
+        <v>0.1135855658378566</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>98</v>
@@ -4040,19 +4040,19 @@
         <v>104700</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>86958</v>
+        <v>85281</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>123178</v>
+        <v>123513</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1356445482780892</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1126589628023634</v>
+        <v>0.1104863920557856</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.159585045310715</v>
+        <v>0.1600191033996895</v>
       </c>
     </row>
     <row r="17">
@@ -4069,19 +4069,19 @@
         <v>89652</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>73983</v>
+        <v>73294</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>106495</v>
+        <v>107679</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1968917863047528</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1624801433114922</v>
+        <v>0.160967881758992</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2338816590986312</v>
+        <v>0.2364827999337102</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>21</v>
@@ -4090,19 +4090,19 @@
         <v>22440</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>14339</v>
+        <v>14653</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>32625</v>
+        <v>33389</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07089358504163355</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04530114960222836</v>
+        <v>0.04629355169199741</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1030693818231092</v>
+        <v>0.1054835831592223</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>108</v>
@@ -4111,19 +4111,19 @@
         <v>112092</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>93877</v>
+        <v>93999</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>136033</v>
+        <v>132879</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1452215598791081</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1216237071553439</v>
+        <v>0.1217814123153237</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1762389795433418</v>
+        <v>0.1721525556699781</v>
       </c>
     </row>
     <row r="18">
@@ -4215,19 +4215,19 @@
         <v>150583</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>130698</v>
+        <v>131343</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>170448</v>
+        <v>171138</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4141817229283801</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3594881023525435</v>
+        <v>0.3612627570434049</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4688207535187311</v>
+        <v>0.4707198085797496</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>153</v>
@@ -4236,19 +4236,19 @@
         <v>166792</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>150108</v>
+        <v>150893</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>181692</v>
+        <v>181239</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6888792953298678</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6199725244432855</v>
+        <v>0.6232118833619579</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7504187457188624</v>
+        <v>0.7485484183341786</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>290</v>
@@ -4257,19 +4257,19 @@
         <v>317375</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>290906</v>
+        <v>290845</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>346897</v>
+        <v>342471</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5239908031467297</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4802894943133114</v>
+        <v>0.4801890005084882</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.57273247092684</v>
+        <v>0.5654249411072928</v>
       </c>
     </row>
     <row r="20">
@@ -4286,19 +4286,19 @@
         <v>89381</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>73485</v>
+        <v>73705</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>108312</v>
+        <v>106058</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2458451823336526</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2021224553006479</v>
+        <v>0.2027278648617343</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2979160094164224</v>
+        <v>0.2917149513241804</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>52</v>
@@ -4307,19 +4307,19 @@
         <v>57680</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>43828</v>
+        <v>44503</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>72542</v>
+        <v>72389</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.238229235069298</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1810176456198348</v>
+        <v>0.1838063378585029</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2996118568588134</v>
+        <v>0.2989788918190084</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>131</v>
@@ -4328,19 +4328,19 @@
         <v>147061</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>125172</v>
+        <v>126384</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>169014</v>
+        <v>173688</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2428007427458577</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2066615663556817</v>
+        <v>0.2086626880940632</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2790451209166151</v>
+        <v>0.2867614939790848</v>
       </c>
     </row>
     <row r="21">
@@ -4357,19 +4357,19 @@
         <v>54409</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>41892</v>
+        <v>40521</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>71441</v>
+        <v>68466</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1496519962541535</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1152254290037764</v>
+        <v>0.1114552332366335</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.196499689137172</v>
+        <v>0.1883179330514713</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>5</v>
@@ -4378,19 +4378,19 @@
         <v>5453</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2105</v>
+        <v>2185</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>12156</v>
+        <v>12163</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02252326049536178</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.008692578634229464</v>
+        <v>0.009023343412941236</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.05020717610154272</v>
+        <v>0.05023389381997594</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>54</v>
@@ -4399,19 +4399,19 @@
         <v>59862</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>45039</v>
+        <v>45990</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>75862</v>
+        <v>75731</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.09883287389732655</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07436068975304674</v>
+        <v>0.07593040853680993</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.125249792003086</v>
+        <v>0.1250323802105046</v>
       </c>
     </row>
     <row r="22">
@@ -4428,19 +4428,19 @@
         <v>69194</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>55051</v>
+        <v>54952</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>87152</v>
+        <v>86012</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1903210984838138</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1514195021224755</v>
+        <v>0.1511456829697817</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2397140313611555</v>
+        <v>0.2365782375919547</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>12</v>
@@ -4449,19 +4449,19 @@
         <v>12195</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6721</v>
+        <v>6896</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>21378</v>
+        <v>20558</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05036820910547246</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02775719282358736</v>
+        <v>0.02848096682499581</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08829475639909921</v>
+        <v>0.08490659286458614</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>74</v>
@@ -4470,19 +4470,19 @@
         <v>81390</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>65716</v>
+        <v>65245</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>98845</v>
+        <v>98834</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.134375580210086</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1084986097010381</v>
+        <v>0.1077210718261822</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1631945852575808</v>
+        <v>0.1631765261808354</v>
       </c>
     </row>
     <row r="23">
@@ -4574,19 +4574,19 @@
         <v>64659</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>51191</v>
+        <v>51543</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>78664</v>
+        <v>78178</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3927794854881457</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3109658963305134</v>
+        <v>0.3131040593804376</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4778557697491668</v>
+        <v>0.4749030720431027</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>66</v>
@@ -4595,19 +4595,19 @@
         <v>76792</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>66654</v>
+        <v>65530</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>86439</v>
+        <v>86022</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7252822757155065</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6295345692502952</v>
+        <v>0.6189176620933343</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8163926330338674</v>
+        <v>0.8124539270419419</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>122</v>
@@ -4616,19 +4616,19 @@
         <v>141451</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>122827</v>
+        <v>123613</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>158288</v>
+        <v>159563</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5229287704186364</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4540789611145467</v>
+        <v>0.4569846475622971</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5851733365723851</v>
+        <v>0.589886675112528</v>
       </c>
     </row>
     <row r="25">
@@ -4645,19 +4645,19 @@
         <v>51459</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>39186</v>
+        <v>39067</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>64412</v>
+        <v>64564</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.312595935114961</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2380423970631274</v>
+        <v>0.2373219913712325</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3912806398930239</v>
+        <v>0.3922035396651903</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>18</v>
@@ -4666,19 +4666,19 @@
         <v>22468</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>13781</v>
+        <v>14158</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>32350</v>
+        <v>32963</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2122022733145849</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.130155201592308</v>
+        <v>0.1337140768225054</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3055342089284662</v>
+        <v>0.3113236540980077</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>63</v>
@@ -4687,19 +4687,19 @@
         <v>73927</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>59595</v>
+        <v>58281</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>91708</v>
+        <v>90507</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2732995331631518</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2203184028594115</v>
+        <v>0.2154605475373537</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3390343654846988</v>
+        <v>0.334593480727434</v>
       </c>
     </row>
     <row r="26">
@@ -4716,19 +4716,19 @@
         <v>19965</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>12459</v>
+        <v>12883</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>30513</v>
+        <v>29339</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1212814391430335</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07568241577030337</v>
+        <v>0.07825986917568228</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1853584011157384</v>
+        <v>0.1782248865358367</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5</v>
@@ -4737,19 +4737,19 @@
         <v>5616</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2188</v>
+        <v>2201</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>12405</v>
+        <v>12690</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.053044951995174</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02066367110235862</v>
+        <v>0.02078723628633353</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.117164344275692</v>
+        <v>0.1198493219983391</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>23</v>
@@ -4758,19 +4758,19 @@
         <v>25581</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>16493</v>
+        <v>16795</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>36937</v>
+        <v>36952</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.09457209934353923</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0609713304150828</v>
+        <v>0.06208878605815433</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1365505931970174</v>
+        <v>0.1366072182625355</v>
       </c>
     </row>
     <row r="27">
@@ -4787,19 +4787,19 @@
         <v>28535</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>19107</v>
+        <v>19739</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>38653</v>
+        <v>39211</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1733431402538599</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1160682696822129</v>
+        <v>0.1199066867937665</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2348046928660615</v>
+        <v>0.2381923621097512</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1</v>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>5104</v>
+        <v>6207</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.009470498974734586</v>
@@ -4820,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.04820997741367639</v>
+        <v>0.05862502376731142</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>27</v>
@@ -4829,19 +4829,19 @@
         <v>29538</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>19971</v>
+        <v>20635</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>40172</v>
+        <v>42099</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1091995970746726</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.07383141564248749</v>
+        <v>0.07628586172277908</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1485135480400215</v>
+        <v>0.155637121883725</v>
       </c>
     </row>
     <row r="28">
@@ -4933,19 +4933,19 @@
         <v>541809</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>505291</v>
+        <v>500629</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>579099</v>
+        <v>581497</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3853938829073705</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3594179366831535</v>
+        <v>0.3561017931656479</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4119187951365201</v>
+        <v>0.4136244830194895</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>699</v>
@@ -4954,19 +4954,19 @@
         <v>714980</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>684077</v>
+        <v>683055</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>746024</v>
+        <v>742041</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6940851604243026</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6640857539219146</v>
+        <v>0.6630933231053545</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7242222292138771</v>
+        <v>0.7203558588130975</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1209</v>
@@ -4975,19 +4975,19 @@
         <v>1256788</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1204256</v>
+        <v>1205362</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1305942</v>
+        <v>1313616</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5159312799252725</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4943657905413988</v>
+        <v>0.4948200960588408</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5361097519994469</v>
+        <v>0.5392597733211311</v>
       </c>
     </row>
     <row r="30">
@@ -5004,19 +5004,19 @@
         <v>359756</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>326627</v>
+        <v>322706</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>394229</v>
+        <v>391215</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2558977271405577</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2323329771601815</v>
+        <v>0.2295439228822237</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2804189878862712</v>
+        <v>0.278274594960395</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>185</v>
@@ -5025,19 +5025,19 @@
         <v>191882</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>165838</v>
+        <v>169402</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>220210</v>
+        <v>218195</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1862745541205312</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1609918633432872</v>
+        <v>0.1644512829926979</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2137746127480789</v>
+        <v>0.2118183880723612</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>515</v>
@@ -5046,19 +5046,19 @@
         <v>551638</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>508385</v>
+        <v>507044</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>592756</v>
+        <v>595179</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2264559241480427</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2087000408710491</v>
+        <v>0.2081496250294268</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2433357092475489</v>
+        <v>0.2443303575818695</v>
       </c>
     </row>
     <row r="31">
@@ -5075,19 +5075,19 @@
         <v>227973</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>200277</v>
+        <v>199910</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>256384</v>
+        <v>257536</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1621589877802695</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1424587212734419</v>
+        <v>0.1421976324792482</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1823686237700601</v>
+        <v>0.1831879767553332</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>64</v>
@@ -5096,19 +5096,19 @@
         <v>64201</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>51624</v>
+        <v>50288</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>80527</v>
+        <v>82276</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.06232453421826665</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05011546121020825</v>
+        <v>0.04881847275095813</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.07817388117077732</v>
+        <v>0.07987154430185665</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>274</v>
@@ -5117,19 +5117,19 @@
         <v>292173</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>258486</v>
+        <v>257244</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>323812</v>
+        <v>325812</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1199416313148811</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1061124142803984</v>
+        <v>0.105602826783203</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1329300568089012</v>
+        <v>0.1337508775492651</v>
       </c>
     </row>
     <row r="32">
@@ -5146,19 +5146,19 @@
         <v>276321</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>246522</v>
+        <v>247848</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>310440</v>
+        <v>307814</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1965494021718023</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.175353338346937</v>
+        <v>0.1762964188977535</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2208185372358573</v>
+        <v>0.2189511098471361</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>58</v>
@@ -5167,19 +5167,19 @@
         <v>59041</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>44819</v>
+        <v>46428</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>74632</v>
+        <v>76877</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.05731575123689958</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.04350918315057337</v>
+        <v>0.04507136576811675</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.07245089481697276</v>
+        <v>0.0746305593501531</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>316</v>
@@ -5188,19 +5188,19 @@
         <v>335362</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>302622</v>
+        <v>300988</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>371406</v>
+        <v>372499</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1376711646118037</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1242311017679231</v>
+        <v>0.1235601918878849</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1524677851766084</v>
+        <v>0.1529166100995598</v>
       </c>
     </row>
     <row r="33">
@@ -5533,19 +5533,19 @@
         <v>6460</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1408</v>
+        <v>1989</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17830</v>
+        <v>17094</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1348985057334448</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02940269154268933</v>
+        <v>0.04154273849193468</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3723129522805226</v>
+        <v>0.3569485896993842</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -5554,19 +5554,19 @@
         <v>32116</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23307</v>
+        <v>23369</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39522</v>
+        <v>39732</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6779115364315718</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4919734115684106</v>
+        <v>0.4932693539999141</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.834236072705866</v>
+        <v>0.8386797724340083</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -5575,19 +5575,19 @@
         <v>38576</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25737</v>
+        <v>25254</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>52094</v>
+        <v>51000</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.4049424894043924</v>
+        <v>0.4049424894043922</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2701677739002684</v>
+        <v>0.2650965008070504</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5468422339888769</v>
+        <v>0.5353510168188975</v>
       </c>
     </row>
     <row r="5">
@@ -5604,19 +5604,19 @@
         <v>14188</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5976</v>
+        <v>5740</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>25501</v>
+        <v>25708</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2962683323115459</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1247808902084415</v>
+        <v>0.1198621067572933</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5325036546091387</v>
+        <v>0.5368245561882182</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -5625,19 +5625,19 @@
         <v>6863</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2553</v>
+        <v>2470</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15110</v>
+        <v>13908</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1448751774202441</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05388091329447532</v>
+        <v>0.05213119364033351</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3189433645581201</v>
+        <v>0.2935773366963049</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>11</v>
@@ -5646,19 +5646,19 @@
         <v>21051</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>11670</v>
+        <v>11220</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>35444</v>
+        <v>35998</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2209795117195266</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1225017898555959</v>
+        <v>0.1177755265138196</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3720566754727157</v>
+        <v>0.3778740035627544</v>
       </c>
     </row>
     <row r="6">
@@ -5675,19 +5675,19 @@
         <v>12026</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4993</v>
+        <v>4863</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>23486</v>
+        <v>22705</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2511204993198478</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1042641984349118</v>
+        <v>0.1015415340820566</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4904197830431118</v>
+        <v>0.474113469668566</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -5699,16 +5699,16 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9932</v>
+        <v>10509</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.06437904562361191</v>
+        <v>0.06437904562361189</v>
       </c>
       <c r="O6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2096502036415367</v>
+        <v>0.2218328830968155</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>8</v>
@@ -5717,19 +5717,19 @@
         <v>15076</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>7373</v>
+        <v>7370</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>28094</v>
+        <v>27756</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.1582527351562478</v>
+        <v>0.1582527351562477</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07739026741666906</v>
+        <v>0.07736067639359474</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2949046349617242</v>
+        <v>0.2913551271645808</v>
       </c>
     </row>
     <row r="7">
@@ -5746,19 +5746,19 @@
         <v>15215</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5961</v>
+        <v>6420</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26612</v>
+        <v>28238</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3177126626351615</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.12446667968081</v>
+        <v>0.134053557311076</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5556992472881435</v>
+        <v>0.5896577044860851</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -5767,19 +5767,19 @@
         <v>5346</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1364</v>
+        <v>1402</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12319</v>
+        <v>13371</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.1128342405245724</v>
+        <v>0.1128342405245723</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02879303607778415</v>
+        <v>0.02959155017958093</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2600271019130279</v>
+        <v>0.2822445993064725</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -5788,19 +5788,19 @@
         <v>20560</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10962</v>
+        <v>10973</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>36699</v>
+        <v>36351</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2158252637198332</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1150696910642302</v>
+        <v>0.1151813476139993</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3852390723386775</v>
+        <v>0.3815802246365876</v>
       </c>
     </row>
     <row r="8">
@@ -5892,19 +5892,19 @@
         <v>81783</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>66005</v>
+        <v>63891</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>102193</v>
+        <v>100838</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4119263611604115</v>
+        <v>0.4119263611604117</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3324518063004301</v>
+        <v>0.3218042110366856</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5147231776230884</v>
+        <v>0.5078993257234764</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>114</v>
@@ -5913,19 +5913,19 @@
         <v>118590</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>106087</v>
+        <v>107551</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>129320</v>
+        <v>129124</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.7425075377435835</v>
+        <v>0.7425075377435836</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6642236696087692</v>
+        <v>0.6733873628045137</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8096863259660602</v>
+        <v>0.8084580837073375</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>164</v>
@@ -5934,19 +5934,19 @@
         <v>200373</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>175996</v>
+        <v>178462</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>224539</v>
+        <v>223692</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5593049561903367</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4912605689700943</v>
+        <v>0.49814402763068</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6267597022896784</v>
+        <v>0.6243959013704588</v>
       </c>
     </row>
     <row r="10">
@@ -5963,19 +5963,19 @@
         <v>36008</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>23356</v>
+        <v>23989</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>51579</v>
+        <v>51675</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1813666761453169</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1176408698948267</v>
+        <v>0.1208266082045635</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2597908100426913</v>
+        <v>0.2602738053579046</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -5984,19 +5984,19 @@
         <v>26618</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17501</v>
+        <v>18136</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>36890</v>
+        <v>37487</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1666601872444493</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1095726450132614</v>
+        <v>0.1135544200457964</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.230974214630502</v>
+        <v>0.2347106805026759</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>49</v>
@@ -6005,19 +6005,19 @@
         <v>62626</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>48293</v>
+        <v>46445</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>81176</v>
+        <v>80119</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.174810278426502</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1348019862942229</v>
+        <v>0.1296426750820361</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2265891654902522</v>
+        <v>0.2236376087034918</v>
       </c>
     </row>
     <row r="11">
@@ -6034,19 +6034,19 @@
         <v>36690</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>23131</v>
+        <v>24004</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>53675</v>
+        <v>54317</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1848016103432784</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1165050937106793</v>
+        <v>0.1209011661582173</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2703493574873692</v>
+        <v>0.2735840973760308</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -6055,19 +6055,19 @@
         <v>6293</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2468</v>
+        <v>2611</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>13451</v>
+        <v>14032</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.03939964961732986</v>
+        <v>0.03939964961732985</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01544947754377075</v>
+        <v>0.01634537612349362</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08421584437736825</v>
+        <v>0.0878531123759867</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>27</v>
@@ -6076,19 +6076,19 @@
         <v>42983</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>29955</v>
+        <v>29269</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>63306</v>
+        <v>64666</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1199789942830587</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08361510253394192</v>
+        <v>0.08169923900541634</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1767081221172921</v>
+        <v>0.1805044551887799</v>
       </c>
     </row>
     <row r="12">
@@ -6105,19 +6105,19 @@
         <v>44057</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>28584</v>
+        <v>29472</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>63753</v>
+        <v>62159</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.221905352350993</v>
+        <v>0.2219053523509931</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.143969695927954</v>
+        <v>0.1484465446262243</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3211129540132101</v>
+        <v>0.3130820422016304</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -6126,19 +6126,19 @@
         <v>8215</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3286</v>
+        <v>3582</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16748</v>
+        <v>16127</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05143262539463732</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02057125217478798</v>
+        <v>0.0224285633123824</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1048638000261825</v>
+        <v>0.1009709460418881</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>32</v>
@@ -6147,19 +6147,19 @@
         <v>52271</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>36427</v>
+        <v>35380</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>71511</v>
+        <v>71797</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1459057711001026</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1016791637122907</v>
+        <v>0.09875549408999909</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.199610012798036</v>
+        <v>0.2004076050255685</v>
       </c>
     </row>
     <row r="13">
@@ -6251,19 +6251,19 @@
         <v>119168</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>100622</v>
+        <v>103626</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>137876</v>
+        <v>136883</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4331116823928475</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3657071512773509</v>
+        <v>0.3766244999812197</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5011043482214864</v>
+        <v>0.49749592318667</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>159</v>
@@ -6272,19 +6272,19 @@
         <v>116900</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>106042</v>
+        <v>106293</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>127484</v>
+        <v>127006</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6539112422678922</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5931723892360741</v>
+        <v>0.5945770368331499</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7131108283300354</v>
+        <v>0.7104400151390134</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>260</v>
@@ -6293,19 +6293,19 @@
         <v>236069</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>215003</v>
+        <v>214514</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>258268</v>
+        <v>259260</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5200720928336199</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4736639550274148</v>
+        <v>0.4725866870536566</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.568978635096253</v>
+        <v>0.5711640248006047</v>
       </c>
     </row>
     <row r="15">
@@ -6322,19 +6322,19 @@
         <v>67198</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>53521</v>
+        <v>52405</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>82714</v>
+        <v>83966</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2442282232520117</v>
+        <v>0.2442282232520116</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1945191485319347</v>
+        <v>0.1904637991155632</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3006221512557088</v>
+        <v>0.3051703477079552</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>45</v>
@@ -6343,19 +6343,19 @@
         <v>31285</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>23215</v>
+        <v>23107</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>40325</v>
+        <v>40419</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1749989352969418</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1298603316368415</v>
+        <v>0.1292565757317019</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2255666573542009</v>
+        <v>0.2260930604110492</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>105</v>
@@ -6364,19 +6364,19 @@
         <v>98483</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>82213</v>
+        <v>81809</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>117124</v>
+        <v>115546</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.2169627373130802</v>
+        <v>0.2169627373130801</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1811187314326721</v>
+        <v>0.1802308493413566</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.258030379274562</v>
+        <v>0.2545551047804406</v>
       </c>
     </row>
     <row r="16">
@@ -6393,19 +6393,19 @@
         <v>36184</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>26004</v>
+        <v>25509</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>49083</v>
+        <v>48916</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1315085936267791</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0945090604349627</v>
+        <v>0.09270971337139866</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1783896094760107</v>
+        <v>0.1777820087844174</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>18</v>
@@ -6414,19 +6414,19 @@
         <v>13691</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8565</v>
+        <v>8538</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20930</v>
+        <v>21234</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07658133257685451</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04790842991628828</v>
+        <v>0.04775975079601635</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1170782417641391</v>
+        <v>0.118779905947619</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>51</v>
@@ -6435,19 +6435,19 @@
         <v>49874</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>37362</v>
+        <v>37080</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>63269</v>
+        <v>63575</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1098758640688397</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0823111248402642</v>
+        <v>0.08168950706640357</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1393840569593845</v>
+        <v>0.1400593971288669</v>
       </c>
     </row>
     <row r="17">
@@ -6464,19 +6464,19 @@
         <v>52594</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>39258</v>
+        <v>39178</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>67377</v>
+        <v>67314</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1911515007283617</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1426823115965898</v>
+        <v>0.1423898401731675</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2448801128041939</v>
+        <v>0.2446508856401456</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>22</v>
@@ -6485,19 +6485,19 @@
         <v>16895</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11163</v>
+        <v>10699</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>24587</v>
+        <v>24051</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09450848985831155</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06244192577460354</v>
+        <v>0.05984671821195844</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1375314556328385</v>
+        <v>0.1345366939824772</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>66</v>
@@ -6506,19 +6506,19 @@
         <v>69490</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>53284</v>
+        <v>55905</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>85563</v>
+        <v>87889</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.1530893057844603</v>
+        <v>0.1530893057844602</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1173875665591749</v>
+        <v>0.1231628974857421</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1885000653251342</v>
+        <v>0.1936235129748927</v>
       </c>
     </row>
     <row r="18">
@@ -6610,19 +6610,19 @@
         <v>112242</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>96938</v>
+        <v>97372</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>129562</v>
+        <v>130114</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3922967344802354</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3388098452974669</v>
+        <v>0.3403263950961031</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4528322696151723</v>
+        <v>0.4547625593634563</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>259</v>
@@ -6631,19 +6631,19 @@
         <v>166332</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>155488</v>
+        <v>155400</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>176037</v>
+        <v>175984</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.7425912949011018</v>
+        <v>0.7425912949011019</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6941807768721323</v>
+        <v>0.6937858481205614</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7859231600320652</v>
+        <v>0.7856852324017912</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>365</v>
@@ -6652,19 +6652,19 @@
         <v>278573</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>258179</v>
+        <v>256381</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>301627</v>
+        <v>299753</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.5461125328518535</v>
+        <v>0.5461125328518533</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5061319173611818</v>
+        <v>0.5026063532313171</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5913075104604808</v>
+        <v>0.587634077808982</v>
       </c>
     </row>
     <row r="20">
@@ -6681,19 +6681,19 @@
         <v>79498</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>66113</v>
+        <v>64776</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>95140</v>
+        <v>96227</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2778555280393026</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2310708393834083</v>
+        <v>0.2263992245710625</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3325254175468156</v>
+        <v>0.3363224189034341</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>54</v>
@@ -6702,19 +6702,19 @@
         <v>34622</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>27045</v>
+        <v>27060</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>44593</v>
+        <v>43619</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1545722353713264</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1207422759684911</v>
+        <v>0.1208121022542124</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1990884858587297</v>
+        <v>0.1947382698786415</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>133</v>
@@ -6723,19 +6723,19 @@
         <v>114121</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>95856</v>
+        <v>98131</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>132046</v>
+        <v>134514</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2237213214880409</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1879151588338248</v>
+        <v>0.1923743852704099</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2588620214256701</v>
+        <v>0.2636993491890008</v>
       </c>
     </row>
     <row r="21">
@@ -6752,19 +6752,19 @@
         <v>41721</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>30287</v>
+        <v>29716</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>55737</v>
+        <v>55356</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1458200190204698</v>
+        <v>0.1458200190204697</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1058574910519883</v>
+        <v>0.1038619039318049</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1948079270089306</v>
+        <v>0.1934758104777691</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>15</v>
@@ -6773,19 +6773,19 @@
         <v>9570</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>5294</v>
+        <v>5545</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>14990</v>
+        <v>15333</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.04272452031686404</v>
+        <v>0.04272452031686406</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02363580419428042</v>
+        <v>0.02475782296451735</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.06692262973401905</v>
+        <v>0.06845309681797766</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>52</v>
@@ -6794,19 +6794,19 @@
         <v>51291</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>38651</v>
+        <v>38888</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>66232</v>
+        <v>66802</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1005503567609053</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07577148169226493</v>
+        <v>0.07623611883203668</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1298412868566694</v>
+        <v>0.1309586769969069</v>
       </c>
     </row>
     <row r="22">
@@ -6823,19 +6823,19 @@
         <v>52653</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>39793</v>
+        <v>38267</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>68953</v>
+        <v>66462</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.1840277184599923</v>
+        <v>0.1840277184599922</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.13908179503872</v>
+        <v>0.1337467737040952</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2409972247598411</v>
+        <v>0.2322925837388766</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>21</v>
@@ -6844,19 +6844,19 @@
         <v>13464</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8586</v>
+        <v>8694</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20652</v>
+        <v>19811</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.06011194941070767</v>
+        <v>0.06011194941070769</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03833265995661512</v>
+        <v>0.03881629654173906</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09219965249215331</v>
+        <v>0.08844810831792499</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>69</v>
@@ -6865,19 +6865,19 @@
         <v>66117</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>52102</v>
+        <v>52691</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>81478</v>
+        <v>83074</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.1296157888992004</v>
+        <v>0.1296157888992003</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1021407353498636</v>
+        <v>0.1032952854666876</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1597285719529473</v>
+        <v>0.1628573322311037</v>
       </c>
     </row>
     <row r="23">
@@ -6969,19 +6969,19 @@
         <v>71404</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>59937</v>
+        <v>59426</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>83983</v>
+        <v>83642</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.4425905050481507</v>
+        <v>0.4425905050481506</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3715140924730611</v>
+        <v>0.3683447033903475</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5205581771019968</v>
+        <v>0.5184415237230943</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>121</v>
@@ -6990,19 +6990,19 @@
         <v>73279</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>65589</v>
+        <v>65834</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>79841</v>
+        <v>79816</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7221512511928529</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6463710875003148</v>
+        <v>0.6487807514296978</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7868161483873389</v>
+        <v>0.7865733692895932</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>196</v>
@@ -7011,19 +7011,19 @@
         <v>144683</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>130772</v>
+        <v>129272</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>160290</v>
+        <v>159316</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5505327186642507</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4975974572793761</v>
+        <v>0.4918925650754529</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6099158639014076</v>
+        <v>0.6062126379265277</v>
       </c>
     </row>
     <row r="25">
@@ -7040,19 +7040,19 @@
         <v>33253</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>23246</v>
+        <v>23890</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>43024</v>
+        <v>43486</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.2061120797078431</v>
+        <v>0.206112079707843</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1440861474407972</v>
+        <v>0.1480768461776899</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2666752892866743</v>
+        <v>0.2695402878051045</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>28</v>
@@ -7061,19 +7061,19 @@
         <v>16465</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>11576</v>
+        <v>11503</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>22156</v>
+        <v>23296</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.162261707860047</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.114076076492593</v>
+        <v>0.113357463572372</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2183391589008484</v>
+        <v>0.2295738701355517</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>64</v>
@@ -7082,19 +7082,19 @@
         <v>49718</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>39760</v>
+        <v>39511</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>61899</v>
+        <v>62045</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1891808535953966</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1512908422513002</v>
+        <v>0.1503424401153705</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2355322735859834</v>
+        <v>0.2360885787237081</v>
       </c>
     </row>
     <row r="26">
@@ -7111,19 +7111,19 @@
         <v>24144</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>16733</v>
+        <v>16674</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>34219</v>
+        <v>33486</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.149654554897462</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1037181047547338</v>
+        <v>0.1033528203863394</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2121042640660188</v>
+        <v>0.2075552152579067</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>9</v>
@@ -7132,19 +7132,19 @@
         <v>5537</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2557</v>
+        <v>2466</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>10372</v>
+        <v>10280</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.0545695086209689</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02520342348341726</v>
+        <v>0.02429822715894278</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1022179069976009</v>
+        <v>0.1013050413536847</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>35</v>
@@ -7153,19 +7153,19 @@
         <v>29682</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>20581</v>
+        <v>21038</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>39816</v>
+        <v>41337</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1129409228213714</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0783111120732303</v>
+        <v>0.08005117925301912</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1515042821971415</v>
+        <v>0.1572909130126164</v>
       </c>
     </row>
     <row r="27">
@@ -7182,19 +7182,19 @@
         <v>32532</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>23246</v>
+        <v>22880</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>43114</v>
+        <v>42505</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2016428603465443</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1440896607943244</v>
+        <v>0.1418205331786536</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2672382137690395</v>
+        <v>0.2634588328952048</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>10</v>
@@ -7203,19 +7203,19 @@
         <v>6192</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3182</v>
+        <v>3223</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>10844</v>
+        <v>11241</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.06101753232613107</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.03136070675126493</v>
+        <v>0.03176616176146982</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1068624763572464</v>
+        <v>0.1107815373575285</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>43</v>
@@ -7224,19 +7224,19 @@
         <v>38723</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>29142</v>
+        <v>28464</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>49582</v>
+        <v>50249</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1473455049189815</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.110886054362084</v>
+        <v>0.1083079006075533</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1886624241491488</v>
+        <v>0.1912025421977906</v>
       </c>
     </row>
     <row r="28">
@@ -7328,19 +7328,19 @@
         <v>391057</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>355987</v>
+        <v>356824</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>423257</v>
+        <v>425271</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4035605099242809</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3673684725357843</v>
+        <v>0.3682326204500111</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4367899026389093</v>
+        <v>0.4388676600147892</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>673</v>
@@ -7349,19 +7349,19 @@
         <v>507217</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>484288</v>
+        <v>486718</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>525922</v>
+        <v>528472</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.7130615660344913</v>
+        <v>0.7130615660344912</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.680826854620771</v>
+        <v>0.6842432433898815</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7393569545381776</v>
+        <v>0.7429429957204138</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1009</v>
@@ -7370,19 +7370,19 @@
         <v>898275</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>854865</v>
+        <v>855840</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>941395</v>
+        <v>940730</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5345787397255829</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5087449154458217</v>
+        <v>0.5093251119807317</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5602405524239179</v>
+        <v>0.5598445493720561</v>
       </c>
     </row>
     <row r="30">
@@ -7399,19 +7399,19 @@
         <v>230145</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>202585</v>
+        <v>201708</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>259077</v>
+        <v>260644</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2375034137852558</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2090623835457699</v>
+        <v>0.2081567199034659</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2673607343126264</v>
+        <v>0.2689775653955424</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>157</v>
@@ -7420,19 +7420,19 @@
         <v>115854</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>99376</v>
+        <v>97632</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>133456</v>
+        <v>134236</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1628711575446716</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1397059665403142</v>
+        <v>0.1372545236105027</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1876163306278538</v>
+        <v>0.1887128506718974</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>362</v>
@@ -7441,19 +7441,19 @@
         <v>345999</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>313943</v>
+        <v>313336</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>380424</v>
+        <v>379967</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.205910028542536</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1868326272338147</v>
+        <v>0.1864719233823363</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2263969098150264</v>
+        <v>0.2261249010999922</v>
       </c>
     </row>
     <row r="31">
@@ -7470,19 +7470,19 @@
         <v>150765</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>126139</v>
+        <v>127247</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>179942</v>
+        <v>179282</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1555855634305799</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1301716339192815</v>
+        <v>0.1313153121667335</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1856950698630286</v>
+        <v>0.1850143668596922</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>50</v>
@@ -7491,19 +7491,19 @@
         <v>38140</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>28070</v>
+        <v>28874</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>51608</v>
+        <v>51271</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.05361891388193688</v>
+        <v>0.05361891388193687</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03946157875928139</v>
+        <v>0.04059176293654137</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.07255272340359323</v>
+        <v>0.07207810255694648</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>173</v>
@@ -7512,19 +7512,19 @@
         <v>188906</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>160629</v>
+        <v>163796</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>217463</v>
+        <v>221738</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1124209613754717</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.09559286838471737</v>
+        <v>0.09747756185414158</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1294162520950494</v>
+        <v>0.1319602467832226</v>
       </c>
     </row>
     <row r="32">
@@ -7541,19 +7541,19 @@
         <v>197050</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>167117</v>
+        <v>167182</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>228537</v>
+        <v>224574</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2033505128598835</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.172459704039486</v>
+        <v>0.1725270984365757</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2358443548373759</v>
+        <v>0.2317546793277711</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>64</v>
@@ -7562,19 +7562,19 @@
         <v>50112</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>38833</v>
+        <v>39249</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>64431</v>
+        <v>65072</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.07044836253890027</v>
+        <v>0.07044836253890026</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.05459253234349871</v>
+        <v>0.05517740533526379</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.09057875118637967</v>
+        <v>0.09148091454645078</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>220</v>
@@ -7583,19 +7583,19 @@
         <v>247162</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>215932</v>
+        <v>215033</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>280793</v>
+        <v>278256</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1470902703564094</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1285051316161486</v>
+        <v>0.1279698698188748</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.167104987216594</v>
+        <v>0.1655951154519309</v>
       </c>
     </row>
     <row r="33">
